--- a/イベント登録画面_テスト仕様書.xlsx
+++ b/イベント登録画面_テスト仕様書.xlsx
@@ -160,12 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>候補日を入力してください</t>
-  </si>
-  <si>
-    <t>候補日は正しい形式で入力してください</t>
-  </si>
-  <si>
     <t>DB登録</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -260,15 +254,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントメモを入力してください</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント名を入力して下さい</t>
-    <phoneticPr fontId="1"/>
+    <t>イベント名は文字以上255字以内で入力して下さい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントメモは1024字以内で入力して下さい</t>
+  </si>
+  <si>
+    <t>候補日は1024字以内で入力してください</t>
+  </si>
+  <si>
+    <t>候補日はyyyy/MM//dd HH:mm形式で入力してください</t>
   </si>
 </sst>
 </file>
@@ -318,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -709,22 +705,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -734,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,79 +790,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1191,111 +1179,111 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="32"/>
+      <c r="E2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1309,13 +1297,13 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1329,13 +1317,13 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1349,19 +1337,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1373,14 +1361,14 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1393,83 +1381,83 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="31" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1483,13 +1471,13 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1503,13 +1491,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1523,20 +1511,20 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1547,45 +1535,45 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="45" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -1596,7 +1584,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1605,9 +1593,9 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +1605,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1625,9 +1613,9 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1638,16 +1626,16 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1659,15 +1647,15 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1680,28 +1668,28 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1709,13 +1697,13 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1723,7 +1711,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1733,57 +1721,57 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1795,16 +1783,16 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1815,61 +1803,61 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="36"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34" t="s">
-        <v>21</v>
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1881,53 +1869,53 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="36"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="30" t="s">
-        <v>24</v>
+      <c r="A31" s="42"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1939,15 +1927,15 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1959,16 +1947,16 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1981,12 +1969,12 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -2000,12 +1988,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B4:B24"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C17:C24"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A24"/>
@@ -2015,6 +1997,12 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:B32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C17:C24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
